--- a/Module_1_QuizFiles-July/Module 1_Quiz Data_BoxPlot.xlsx
+++ b/Module_1_QuizFiles-July/Module 1_Quiz Data_BoxPlot.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferryto\Documents\GitHub\DAT222x\Module_1_QuizFiles-July\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferry To\Documents\GitHub\DAT222x\Module_1_QuizFiles-July\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="50" windowWidth="12120" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12120" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$147</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$147</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$147</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$2:$C$147</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$2:$D$147</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$2:$E$147</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$147</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
@@ -1417,8 +1407,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="939800" y="68681600"/>
-              <a:ext cx="4241800" cy="2794000"/>
+              <a:off x="914400" y="67360800"/>
+              <a:ext cx="4038600" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1437,7 +1427,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-HK" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -1450,16 +1440,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1495,8 +1485,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1219200" y="247650"/>
-              <a:ext cx="4572000" cy="6070600"/>
+              <a:off x="3149600" y="930275"/>
+              <a:ext cx="4368800" cy="5953125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1515,7 +1505,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-HK" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -1853,12 +1843,12 @@
   <dimension ref="A1:E442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.28211284513805529</v>
       </c>
@@ -1892,7 +1882,7 @@
         <v>7.1411073003429706E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.15823970037453181</v>
       </c>
@@ -1909,7 +1899,7 @@
         <v>5.0588773293700706E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>-8.4074373484236103E-2</v>
       </c>
@@ -1926,7 +1916,7 @@
         <v>2.5028565210294018E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>-8.0317740511915245E-2</v>
       </c>
@@ -1943,7 +1933,7 @@
         <v>2.2035278154681124E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-4.9904030710172707E-2</v>
       </c>
@@ -1960,7 +1950,7 @@
         <v>3.3455472359407213E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>-0.17171717171717171</v>
       </c>
@@ -1977,7 +1967,7 @@
         <v>-4.3400021170742077E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>-9.512195121951221E-2</v>
       </c>
@@ -1994,7 +1984,7 @@
         <v>4.310058647781348E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.1051212938005391</v>
       </c>
@@ -2011,7 +2001,7 @@
         <v>7.6062165172651672E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7.9268292682926733E-2</v>
       </c>
@@ -2028,7 +2018,7 @@
         <v>-5.6193621531030096E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>-7.3446327683615725E-2</v>
       </c>
@@ -2045,7 +2035,7 @@
         <v>-5.94358796411045E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>-0.14268292682926831</v>
       </c>
@@ -2062,7 +2052,7 @@
         <v>0.14351217455465384</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.6984352773826529E-2</v>
       </c>
@@ -2079,7 +2069,7 @@
         <v>6.540074664700174E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.7832647462277029E-2</v>
       </c>
@@ -2096,7 +2086,7 @@
         <v>-9.041356636096079E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>-0.15768194070080865</v>
       </c>
@@ -2113,7 +2103,7 @@
         <v>-1.4537041079146159E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>-4.159999999999997E-2</v>
       </c>
@@ -2130,7 +2120,7 @@
         <v>0.1047222468326392</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>-4.3405676126878213E-2</v>
       </c>
@@ -2147,7 +2137,7 @@
         <v>-6.2394738952602356E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>-0.15881326352530536</v>
       </c>
@@ -2164,7 +2154,7 @@
         <v>-1.44127961679925E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.35062240663900424</v>
       </c>
@@ -2181,7 +2171,7 @@
         <v>-0.13117812974614876</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.21966205837173566</v>
       </c>
@@ -2198,7 +2188,7 @@
         <v>2.756967335930461E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.11460957178841306</v>
       </c>
@@ -2215,7 +2205,7 @@
         <v>-6.3915621658403796E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.29491525423728815</v>
       </c>
@@ -2232,7 +2222,7 @@
         <v>0.17238693597798424</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.14746945898778371</v>
       </c>
@@ -2249,7 +2239,7 @@
         <v>-2.6573364630851505E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>-6.9201520912547609E-2</v>
       </c>
@@ -2266,7 +2256,7 @@
         <v>0.18130943173028793</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -2283,7 +2273,7 @@
         <v>-5.492219996918804E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>-0.25571895424836599</v>
       </c>
@@ -2300,7 +2290,7 @@
         <v>-5.2979052897548064E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.21514818880351269</v>
       </c>
@@ -2317,7 +2307,7 @@
         <v>3.0072107505735971E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.23486901535682006</v>
       </c>
@@ -2334,7 +2324,7 @@
         <v>0.11896428287327965</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.40965618141916627</v>
       </c>
@@ -2351,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.22314478463933565</v>
       </c>
@@ -2368,7 +2358,7 @@
         <v>0.11299896918209942</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.11582520152736538</v>
       </c>
@@ -2385,7 +2375,7 @@
         <v>0.17587506387327539</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.12889733840304177</v>
       </c>
@@ -2402,7 +2392,7 @@
         <v>1.9039083082104242E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>-0.17985853822835973</v>
       </c>
@@ -2419,7 +2409,7 @@
         <v>1.871002132196169E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>5.872689938398349E-2</v>
       </c>
@@ -2436,7 +2426,7 @@
         <v>8.6494688922610016E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>-1.0085337470907648E-2</v>
       </c>
@@ -2453,7 +2443,7 @@
         <v>-5.7334810248507076E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.17358934169279</v>
       </c>
@@ -2470,7 +2460,7 @@
         <v>0.11487470304237873</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.1345575959933222</v>
       </c>
@@ -2487,7 +2477,7 @@
         <v>6.4270002749518829E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2.3248969982342608E-2</v>
       </c>
@@ -2504,7 +2494,7 @@
         <v>-5.7267110163835991E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>-0.25481737129709525</v>
       </c>
@@ -2521,7 +2511,7 @@
         <v>9.9798627200485143E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>-5.519104592821307E-2</v>
       </c>
@@ -2538,7 +2528,7 @@
         <v>-6.8770672546857842E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>9.0277777777777929E-2</v>
       </c>
@@ -2555,7 +2545,7 @@
         <v>0.26552358400811865</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.24391157736980137</v>
       </c>
@@ -2572,7 +2562,7 @@
         <v>-0.13094323231648239</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>9.4277108433734921E-2</v>
       </c>
@@ -2589,7 +2579,7 @@
         <v>2.574009996155319E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4.2939719240297283E-2</v>
       </c>
@@ -2606,7 +2596,7 @@
         <v>-6.7111452613429684E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>8.2607548165742922E-2</v>
       </c>
@@ -2623,7 +2613,7 @@
         <v>2.8787817911527177E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2.3647001462701087E-2</v>
       </c>
@@ -2640,7 +2630,7 @@
         <v>4.9091015602116615E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>-0.32555370326268157</v>
       </c>
@@ -2657,7 +2647,7 @@
         <v>-2.1777570963238718E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.26906779661016944</v>
       </c>
@@ -2674,7 +2664,7 @@
         <v>7.3637142041670725E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>9.7662771285475847E-2</v>
       </c>
@@ -2691,7 +2681,7 @@
         <v>-9.6942844483828821E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.13384030418250939</v>
       </c>
@@ -2708,7 +2698,7 @@
         <v>-3.2356204588567888E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.19204113570310763</v>
       </c>
@@ -2725,7 +2715,7 @@
         <v>1.1707046421305699E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>7.6894223555889041E-2</v>
       </c>
@@ -2742,7 +2732,7 @@
         <v>3.8114911430817307E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.30616509926854746</v>
       </c>
@@ -2759,7 +2749,7 @@
         <v>-7.2004648869479479E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>-3.6399999999999988E-2</v>
       </c>
@@ -2776,7 +2766,7 @@
         <v>-8.9660145353801804E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>-0.30538259305382592</v>
       </c>
@@ -2793,7 +2783,7 @@
         <v>-0.10960103389335878</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>9.3227091633466042E-2</v>
       </c>
@@ -2810,7 +2800,7 @@
         <v>6.6368573836501563E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>-0.17438046647230313</v>
       </c>
@@ -2827,7 +2817,7 @@
         <v>9.6375491207657357E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>-0.16795409401898037</v>
       </c>
@@ -2844,7 +2834,7 @@
         <v>5.7688071924871173E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>-0.22281167108753322</v>
       </c>
@@ -2861,7 +2851,7 @@
         <v>-6.6184544318655059E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>7.3378839590443751E-2</v>
       </c>
@@ -2878,7 +2868,7 @@
         <v>-0.11194907351092731</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>-8.712241653418118E-2</v>
       </c>
@@ -2895,7 +2885,7 @@
         <v>6.6340973427084379E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>-9.5088819226750415E-2</v>
       </c>
@@ -2912,7 +2902,7 @@
         <v>-5.5555555555555566E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.21785989222478847</v>
       </c>
@@ -2929,7 +2919,7 @@
         <v>4.6220106539725705E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.33944374209860934</v>
       </c>
@@ -2946,7 +2936,7 @@
         <v>7.5334748884170313E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>-0.16588013213780092</v>
       </c>
@@ -2963,7 +2953,7 @@
         <v>3.7597469323608294E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>-2.7439886845827401E-2</v>
       </c>
@@ -2980,7 +2970,7 @@
         <v>-6.3401751558343253E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.13612565445026181</v>
       </c>
@@ -2997,7 +2987,7 @@
         <v>-9.5662630618676456E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>9.9846390168971191E-3</v>
       </c>
@@ -3014,7 +3004,7 @@
         <v>-6.8962354991058683E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>-0.12851711026615975</v>
       </c>
@@ -3031,7 +3021,7 @@
         <v>9.2588032504309373E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.30104712041884812</v>
       </c>
@@ -3048,7 +3038,7 @@
         <v>8.9114266396213546E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>-7.8694388553543382E-2</v>
       </c>
@@ -3065,7 +3055,7 @@
         <v>-9.808790663024515E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>6.1635525357922778E-2</v>
       </c>
@@ -3082,7 +3072,7 @@
         <v>-1.7826541274817167E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.16068571428571435</v>
       </c>
@@ -3099,7 +3089,7 @@
         <v>0.10921973743004874</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.15202835762111053</v>
       </c>
@@ -3116,7 +3106,7 @@
         <v>1.281411854977935E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.18854700854700868</v>
       </c>
@@ -3133,7 +3123,7 @@
         <v>7.2351225425205612E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>-3.2216309506687725E-2</v>
       </c>
@@ -3150,7 +3140,7 @@
         <v>5.0513970821999994E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>-4.8001188883935363E-2</v>
       </c>
@@ -3167,7 +3157,7 @@
         <v>-1.6140421668515805E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>3.9650327817671076E-2</v>
       </c>
@@ -3184,7 +3174,7 @@
         <v>5.8249974739820048E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>-2.6426426426426515E-2</v>
       </c>
@@ -3201,7 +3191,7 @@
         <v>2.1769227096958998E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>5.4287476866132035E-2</v>
       </c>
@@ -3218,7 +3208,7 @@
         <v>3.3141771402762941E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.25146284376828565</v>
       </c>
@@ -3235,7 +3225,7 @@
         <v>1.020546602951587E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>-7.9953243717124506E-2</v>
       </c>
@@ -3252,7 +3242,7 @@
         <v>2.3398095920255543E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.1936221572862406</v>
       </c>
@@ -3269,7 +3259,7 @@
         <v>4.5390918900002936E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>8.1000532197977704E-2</v>
       </c>
@@ -3286,7 +3276,7 @@
         <v>9.9058511751168074E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.18461992910594721</v>
       </c>
@@ -3303,7 +3293,7 @@
         <v>-1.9734253842151349E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.10389826282104563</v>
       </c>
@@ -3320,7 +3310,7 @@
         <v>8.1018098961704768E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>9.7055944582486259E-2</v>
       </c>
@@ -3337,7 +3327,7 @@
         <v>7.4934131736526965E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>-5.0926561427590965E-2</v>
       </c>
@@ -3354,7 +3344,7 @@
         <v>1.5319139454304518E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>-0.21752964998553656</v>
       </c>
@@ -3371,7 +3361,7 @@
         <v>8.6204626256419115E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>-0.20933456561922367</v>
       </c>
@@ -3388,7 +3378,7 @@
         <v>8.7293409302137692E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.25563997662185856</v>
       </c>
@@ -3405,7 +3395,7 @@
         <v>-3.4042869486848384E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>-2.5414261776205642E-2</v>
       </c>
@@ -3422,7 +3412,7 @@
         <v>2.0872408983792674E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.3693762537014042</v>
       </c>
@@ -3439,7 +3429,7 @@
         <v>2.416733405568371E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.20710100446428567</v>
       </c>
@@ -3456,7 +3446,7 @@
         <v>3.2014719411223622E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>-8.1305980930366853E-2</v>
       </c>
@@ -3473,7 +3463,7 @@
         <v>8.8340167587805281E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>9.0954837086425863E-2</v>
       </c>
@@ -3490,7 +3480,7 @@
         <v>-1.6806425674421966E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.20946725092250934</v>
       </c>
@@ -3507,7 +3497,7 @@
         <v>1.6096127402960399E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.15826857987319437</v>
       </c>
@@ -3524,7 +3514,7 @@
         <v>0.11443481337343013</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>4.6631271350372545E-2</v>
       </c>
@@ -3541,7 +3531,7 @@
         <v>4.5818187590279148E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.24883995281163979</v>
       </c>
@@ -3558,7 +3548,7 @@
         <v>8.6870403958382372E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>4.550034636941868E-2</v>
       </c>
@@ -3575,7 +3565,7 @@
         <v>-7.3922272340068984E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0.24470680360208402</v>
       </c>
@@ -3592,7 +3582,7 @@
         <v>0.11446042026373929</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>7.561459543166861E-2</v>
       </c>
@@ -3609,7 +3599,7 @@
         <v>-5.7437826428165042E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>-4.919802937934431E-2</v>
       </c>
@@ -3626,7 +3616,7 @@
         <v>-8.1857338241598299E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0.23751951923531911</v>
       </c>
@@ -3643,7 +3633,7 @@
         <v>0.14115894555075484</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0.34426919032597264</v>
       </c>
@@ -3660,7 +3650,7 @@
         <v>7.6607351604104479E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>4.3890089885083659E-2</v>
       </c>
@@ -3677,7 +3667,7 @@
         <v>0.16019206640285685</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0.45610234611297307</v>
       </c>
@@ -3694,7 +3684,7 @@
         <v>8.1109747727882875E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>-4.0205847953216411E-2</v>
       </c>
@@ -3711,7 +3701,7 @@
         <v>-7.0232949586467752E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0.18050654136364536</v>
       </c>
@@ -3728,7 +3718,7 @@
         <v>8.4556543311970295E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>-0.17290699786942387</v>
       </c>
@@ -3745,7 +3735,7 @@
         <v>0.18087397347786213</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>5.0700906585726409E-2</v>
       </c>
@@ -3762,7 +3752,7 @@
         <v>2.7075607521486831E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>-2.2236159416158781E-3</v>
       </c>
@@ -3779,7 +3769,7 @@
         <v>2.491759268698817E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0.18378095238095243</v>
       </c>
@@ -3796,7 +3786,7 @@
         <v>9.6393431752057807E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0.40666307312324518</v>
       </c>
@@ -3813,7 +3803,7 @@
         <v>8.5064640508051681E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>-3.1279311843700718E-2</v>
       </c>
@@ -3830,7 +3820,7 @@
         <v>0.12641311580494916</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0.1918819188191882</v>
       </c>
@@ -3847,7 +3837,7 @@
         <v>0.14169468250605405</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>2.0512693498452073E-2</v>
       </c>
@@ -3864,7 +3854,7 @@
         <v>-7.750925792985365E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0.12627659987573769</v>
       </c>
@@ -3881,7 +3871,7 @@
         <v>3.6971670714266845E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0.17003331451400888</v>
       </c>
@@ -3898,7 +3888,7 @@
         <v>1.0350559723154309E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>-7.9135418661873222E-2</v>
       </c>
@@ -3915,7 +3905,7 @@
         <v>-0.15156288539587862</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0.315</v>
       </c>
@@ -3932,7 +3922,7 @@
         <v>0.13709522897106721</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>-3.8022813688212928E-3</v>
       </c>
@@ -3949,7 +3939,7 @@
         <v>1.4776249923736459E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>-7.1566412213740507E-2</v>
       </c>
@@ -3966,7 +3956,7 @@
         <v>4.4914354098492162E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0.2034979708085852</v>
       </c>
@@ -3983,7 +3973,7 @@
         <v>0.11669566408658118</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0.36635167706004834</v>
       </c>
@@ -4000,7 +3990,7 @@
         <v>2.8998984213599734E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>-0.19875000000000001</v>
       </c>
@@ -4017,7 +4007,7 @@
         <v>2.7559402458361634E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>2.0280811232449299E-2</v>
       </c>
@@ -4034,7 +4024,7 @@
         <v>5.1633278647060167E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>7.6452599388379203E-3</v>
       </c>
@@ -4051,7 +4041,7 @@
         <v>-0.1707215894296924</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>-0.1638846737481032</v>
       </c>
@@ -4068,7 +4058,7 @@
         <v>-6.8273979309463981E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>7.441016333938294E-2</v>
       </c>
@@ -4085,7 +4075,7 @@
         <v>1.8691188439735516E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0.10472972972972973</v>
       </c>
@@ -4102,7 +4092,7 @@
         <v>-6.7660003924756781E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0.19418960244648317</v>
       </c>
@@ -4119,7 +4109,7 @@
         <v>0.11700819364053212</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>-0.14340588988476313</v>
       </c>
@@ -4136,7 +4126,7 @@
         <v>-4.9667688679880029E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>-4.0358744394618833E-2</v>
       </c>
@@ -4153,7 +4143,7 @@
         <v>0.10627184609022246</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>7.1651090342679122E-2</v>
       </c>
@@ -4170,7 +4160,7 @@
         <v>-7.5036614467579518E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0.18604651162790697</v>
       </c>
@@ -4187,7 +4177,7 @@
         <v>-0.11433356401384079</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>-0.24632352941176472</v>
       </c>
@@ -4204,7 +4194,7 @@
         <v>0.11560664735096746</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>6.1788617886178863E-2</v>
       </c>
@@ -4221,7 +4211,7 @@
         <v>-0.11001162676677827</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0.32159264931087289</v>
       </c>
@@ -4238,7 +4228,7 @@
         <v>0.13813478222546804</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>-7.0683661645422946E-2</v>
       </c>
@@ -4255,7 +4245,7 @@
         <v>0.15213428885158026</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>-0.1396508728179551</v>
       </c>
@@ -4272,7 +4262,7 @@
         <v>5.8446344162687659E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0.14347826086956522</v>
       </c>
@@ -4289,7 +4279,7 @@
         <v>7.8650666025552346E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>-0.10899873257287707</v>
       </c>
@@ -4306,7 +4296,7 @@
         <v>-9.6352633438188715E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>-7.1123755334281651E-3</v>
       </c>
@@ -4323,7 +4313,7 @@
         <v>-3.2693198185933746E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>-0.29369627507163326</v>
       </c>
@@ -4340,7 +4330,7 @@
         <v>4.1291193142024604E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>-4.2596348884381338E-2</v>
       </c>
@@ -4357,42 +4347,42 @@
         <v>-3.8609077762955767E-2</v>
       </c>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C415" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C416" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C435" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C436" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C437" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C440" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C441" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C442" s="3" t="s">
         <v>8</v>
       </c>
@@ -4406,20 +4396,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4483,6 +4473,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18EA55C0-10B3-4C61-A3CD-D9A256E040A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF6F118-983D-40B8-B501-4DD378BE346B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4493,14 +4491,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18EA55C0-10B3-4C61-A3CD-D9A256E040A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
